--- a/Document/RobotInfo.xlsx
+++ b/Document/RobotInfo.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdh\Documents\GitHub\RobotMon-Go\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CEB63C1-825A-4F56-8C30-784F65F12836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E942B1-F6F2-4DBD-9343-378EBC34A704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{7373A209-09CD-4FF1-9DEB-C758ED3707F1}"/>
+    <workbookView xWindow="7725" yWindow="1530" windowWidth="21600" windowHeight="11482" activeTab="2" xr2:uid="{7373A209-09CD-4FF1-9DEB-C758ED3707F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="몬스터 기본 정보" sheetId="1" r:id="rId1"/>
+    <sheet name="몬스터 진화 조건" sheetId="2" r:id="rId2"/>
+    <sheet name="몬스터 강화" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>번호</t>
   </si>
@@ -85,6 +87,18 @@
   </si>
   <si>
     <t>초 담바이</t>
+  </si>
+  <si>
+    <t>진화 번호</t>
+  </si>
+  <si>
+    <t>강화 단계 1</t>
+  </si>
+  <si>
+    <t>강화 단계 2</t>
+  </si>
+  <si>
+    <t>강화 단계 3</t>
   </si>
 </sst>
 </file>
@@ -459,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6423185E-8A1A-4FC2-8F14-4C69185A520A}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -495,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34.5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -521,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51.75" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -547,7 +561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -573,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -625,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -656,4 +670,179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAE8018-2D4B-4278-A550-9FFF91FA46AA}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.6">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.6">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F872829-C5E8-4C0D-AFB9-291CCB7DEB16}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/RobotInfo.xlsx
+++ b/Document/RobotInfo.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdh\Documents\GitHub\RobotMon-Go\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E942B1-F6F2-4DBD-9343-378EBC34A704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="1530" windowWidth="21600" windowHeight="11482" activeTab="2" xr2:uid="{7373A209-09CD-4FF1-9DEB-C758ED3707F1}"/>
+    <workbookView xWindow="7725" yWindow="1530" windowWidth="21600" windowHeight="11475"/>
   </bookViews>
   <sheets>
-    <sheet name="몬스터 기본 정보" sheetId="1" r:id="rId1"/>
-    <sheet name="몬스터 진화 조건" sheetId="2" r:id="rId2"/>
-    <sheet name="몬스터 강화" sheetId="3" r:id="rId3"/>
+    <sheet name="MonsterInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="MonsterEvolve" sheetId="2" r:id="rId2"/>
+    <sheet name="MonsterUpgrade" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,30 +32,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
-    <t>번호</t>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>특성</t>
-  </si>
-  <si>
-    <t>레벨</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
-    <t>공격력</t>
-  </si>
-  <si>
-    <t>방어력</t>
-  </si>
-  <si>
-    <t>Star 수</t>
-  </si>
-  <si>
     <t>기동전사 감담</t>
   </si>
   <si>
@@ -89,23 +62,55 @@
     <t>초 담바이</t>
   </si>
   <si>
-    <t>진화 번호</t>
-  </si>
-  <si>
-    <t>강화 단계 1</t>
-  </si>
-  <si>
-    <t>강화 단계 2</t>
-  </si>
-  <si>
-    <t>강화 단계 3</t>
+    <t>MID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvolveMID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Att</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -269,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -463,61 +468,62 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6423185E-8A1A-4FC2-8F14-4C69185A520A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -535,15 +541,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>11</v>
@@ -561,15 +567,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" ht="18">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -587,15 +593,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" ht="18">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>11</v>
@@ -613,15 +619,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:8" ht="18">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -639,15 +645,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" ht="18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>12</v>
@@ -673,27 +679,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAE8018-2D4B-4278-A550-9FFF91FA46AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="34.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="36">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -704,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -715,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" ht="18">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -734,30 +740,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F872829-C5E8-4C0D-AFB9-291CCB7DEB16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="34.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="36">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -771,7 +777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -785,7 +791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -799,7 +805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" ht="18">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -813,7 +819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -827,7 +833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" ht="18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -844,5 +850,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>